--- a/medicine/Mort/Grand_cimetière_de_Coblence/Grand_cimetière_de_Coblence.xlsx
+++ b/medicine/Mort/Grand_cimetière_de_Coblence/Grand_cimetière_de_Coblence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_cimeti%C3%A8re_de_Coblence</t>
+          <t>Grand_cimetière_de_Coblence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand cimetière de Coblence est le plus grand cimetière de la ville de Coblence, mais aussi un parc. 
 Il s'agit d'un complexe en terrasses qui a été inauguré en 1820. Il est situé sur le versant nord du monastère. Il y a encore quelques monuments intéressants du XIXe siècle, notamment des tombes néo-gothiques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_cimeti%C3%A8re_de_Coblence</t>
+          <t>Grand_cimetière_de_Coblence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Frères de la Miséricorde de Marie-Auxiliatrice
 Max von Schenkendorf (1783-1817)</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_cimeti%C3%A8re_de_Coblence</t>
+          <t>Grand_cimetière_de_Coblence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Hauptfriedhof Koblenz » (voir la liste des auteurs).
 Sur les autres projets Wikimedia :
